--- a/src/media/Normatividad.xlsx
+++ b/src/media/Normatividad.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>El valor a pagar de los derechos de grado es de $ 587.200 COP</t>
+          <t>El valor a pagar de los derechos de grado es de $ 603.700 COP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>El valor a pagar por el semestre académico del programa ingeniería electrónica para el 2021 A y B, es $ 4.759.700 según el Acuerdo nro. 016 del 15 de octubre del 2020</t>
+          <t>El valor a pagar por el semestre académico del programa ingeniería electrónica para el 2022A y B, es $ 4.955.000.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>El valor a pagar del certificado de  estudio  aproximado es de $ 14.500 COP</t>
+          <t>El valor a pagar del certificado de  estudio  aproximado es de $ 15.100 COP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
